--- a/test.xlsx
+++ b/test.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="2">
   <si>
     <t>合并类</t>
+  </si>
+  <si>
+    <t>类</t>
   </si>
 </sst>
 </file>
@@ -348,15 +351,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:66">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>117</v>
+      </c>
+      <c r="G5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>130</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>191</v>
+      </c>
+      <c r="H9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>190</v>
+      </c>
+      <c r="C10">
+        <v>207</v>
+      </c>
+      <c r="D10">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>132</v>
+      </c>
+      <c r="G10">
+        <v>226</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>195</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>102</v>
+      </c>
+      <c r="L11">
+        <v>111</v>
+      </c>
+      <c r="M11">
+        <v>177</v>
+      </c>
+      <c r="N11">
+        <v>67</v>
+      </c>
+      <c r="O11">
+        <v>202</v>
+      </c>
+      <c r="P11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>145</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+      <c r="D12">
+        <v>198</v>
+      </c>
+      <c r="E12">
+        <v>199</v>
+      </c>
+      <c r="F12">
+        <v>245</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <v>103</v>
+      </c>
+      <c r="J12">
+        <v>113</v>
+      </c>
+      <c r="K12">
+        <v>201</v>
+      </c>
+      <c r="L12">
+        <v>218</v>
+      </c>
+      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>73</v>
+      </c>
+      <c r="P12">
+        <v>74</v>
+      </c>
+      <c r="Q12">
+        <v>105</v>
+      </c>
+      <c r="R12">
+        <v>108</v>
+      </c>
+      <c r="S12">
+        <v>203</v>
+      </c>
+      <c r="T12">
+        <v>205</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>16</v>
+      </c>
+      <c r="W12">
+        <v>27</v>
+      </c>
+      <c r="X12">
+        <v>95</v>
+      </c>
+      <c r="Y12">
+        <v>115</v>
+      </c>
+      <c r="Z12">
+        <v>189</v>
+      </c>
+      <c r="AA12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>109</v>
+      </c>
+      <c r="G13">
+        <v>121</v>
+      </c>
+      <c r="H13">
+        <v>122</v>
+      </c>
+      <c r="I13">
+        <v>148</v>
+      </c>
+      <c r="J13">
+        <v>149</v>
+      </c>
+      <c r="K13">
+        <v>233</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>52</v>
+      </c>
+      <c r="N13">
+        <v>72</v>
+      </c>
+      <c r="O13">
+        <v>97</v>
+      </c>
+      <c r="P13">
+        <v>129</v>
+      </c>
+      <c r="Q13">
+        <v>133</v>
+      </c>
+      <c r="R13">
+        <v>200</v>
+      </c>
+      <c r="S13">
+        <v>224</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>46</v>
+      </c>
+      <c r="V13">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <v>77</v>
+      </c>
+      <c r="X13">
+        <v>101</v>
+      </c>
+      <c r="Y13">
+        <v>197</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>15</v>
+      </c>
+      <c r="AB13">
+        <v>166</v>
+      </c>
+      <c r="AC13">
+        <v>185</v>
+      </c>
+      <c r="AD13">
+        <v>209</v>
+      </c>
+      <c r="AE13">
+        <v>231</v>
+      </c>
+      <c r="AF13">
+        <v>276</v>
+      </c>
+      <c r="AG13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>106</v>
+      </c>
+      <c r="G14">
+        <v>116</v>
+      </c>
+      <c r="H14">
+        <v>124</v>
+      </c>
+      <c r="I14">
+        <v>135</v>
+      </c>
+      <c r="J14">
+        <v>151</v>
+      </c>
+      <c r="K14">
+        <v>160</v>
+      </c>
+      <c r="L14">
+        <v>162</v>
+      </c>
+      <c r="M14">
+        <v>163</v>
+      </c>
+      <c r="N14">
+        <v>168</v>
+      </c>
+      <c r="O14">
+        <v>169</v>
+      </c>
+      <c r="P14">
+        <v>178</v>
+      </c>
+      <c r="Q14">
+        <v>206</v>
+      </c>
+      <c r="R14">
+        <v>225</v>
+      </c>
+      <c r="S14">
+        <v>33</v>
+      </c>
+      <c r="T14">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <v>49</v>
+      </c>
+      <c r="V14">
+        <v>66</v>
+      </c>
+      <c r="W14">
+        <v>69</v>
+      </c>
+      <c r="X14">
+        <v>150</v>
+      </c>
+      <c r="Y14">
+        <v>161</v>
+      </c>
+      <c r="Z14">
+        <v>167</v>
+      </c>
+      <c r="AA14">
+        <v>170</v>
+      </c>
+      <c r="AB14">
+        <v>171</v>
+      </c>
+      <c r="AC14">
+        <v>179</v>
+      </c>
+      <c r="AD14">
+        <v>192</v>
+      </c>
+      <c r="AE14">
+        <v>214</v>
+      </c>
+      <c r="AF14">
+        <v>216</v>
+      </c>
+      <c r="AG14">
+        <v>275</v>
+      </c>
+      <c r="AH14">
+        <v>19</v>
+      </c>
+      <c r="AI14">
+        <v>30</v>
+      </c>
+      <c r="AJ14">
+        <v>32</v>
+      </c>
+      <c r="AK14">
+        <v>62</v>
+      </c>
+      <c r="AL14">
+        <v>64</v>
+      </c>
+      <c r="AM14">
+        <v>91</v>
+      </c>
+      <c r="AN14">
+        <v>107</v>
+      </c>
+      <c r="AO14">
+        <v>131</v>
+      </c>
+      <c r="AP14">
+        <v>138</v>
+      </c>
+      <c r="AQ14">
+        <v>139</v>
+      </c>
+      <c r="AR14">
+        <v>141</v>
+      </c>
+      <c r="AS14">
+        <v>155</v>
+      </c>
+      <c r="AT14">
+        <v>157</v>
+      </c>
+      <c r="AU14">
+        <v>184</v>
+      </c>
+      <c r="AV14">
+        <v>228</v>
+      </c>
+      <c r="AW14">
+        <v>11</v>
+      </c>
+      <c r="AX14">
+        <v>53</v>
+      </c>
+      <c r="AY14">
+        <v>65</v>
+      </c>
+      <c r="AZ14">
+        <v>89</v>
+      </c>
+      <c r="BA14">
+        <v>153</v>
+      </c>
+      <c r="BB14">
+        <v>159</v>
+      </c>
+      <c r="BC14">
+        <v>173</v>
+      </c>
+      <c r="BD14">
+        <v>176</v>
+      </c>
+      <c r="BE14">
+        <v>182</v>
+      </c>
+      <c r="BF14">
+        <v>215</v>
+      </c>
+      <c r="BG14">
+        <v>232</v>
+      </c>
+      <c r="BH14">
+        <v>238</v>
+      </c>
+      <c r="BI14">
+        <v>253</v>
+      </c>
+      <c r="BJ14">
+        <v>256</v>
+      </c>
+      <c r="BK14">
+        <v>269</v>
+      </c>
+      <c r="BL14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>104</v>
+      </c>
+      <c r="H15">
+        <v>110</v>
+      </c>
+      <c r="I15">
+        <v>112</v>
+      </c>
+      <c r="J15">
+        <v>152</v>
+      </c>
+      <c r="K15">
+        <v>164</v>
+      </c>
+      <c r="L15">
+        <v>180</v>
+      </c>
+      <c r="M15">
+        <v>181</v>
+      </c>
+      <c r="N15">
+        <v>194</v>
+      </c>
+      <c r="O15">
+        <v>210</v>
+      </c>
+      <c r="P15">
+        <v>211</v>
+      </c>
+      <c r="Q15">
+        <v>217</v>
+      </c>
+      <c r="R15">
+        <v>220</v>
+      </c>
+      <c r="S15">
+        <v>227</v>
+      </c>
+      <c r="T15">
+        <v>234</v>
+      </c>
+      <c r="U15">
+        <v>244</v>
+      </c>
+      <c r="V15">
+        <v>257</v>
+      </c>
+      <c r="W15">
+        <v>271</v>
+      </c>
+      <c r="X15">
+        <v>36</v>
+      </c>
+      <c r="Y15">
+        <v>39</v>
+      </c>
+      <c r="Z15">
+        <v>40</v>
+      </c>
+      <c r="AA15">
+        <v>51</v>
+      </c>
+      <c r="AB15">
+        <v>83</v>
+      </c>
+      <c r="AC15">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>120</v>
+      </c>
+      <c r="AE15">
+        <v>127</v>
+      </c>
+      <c r="AF15">
+        <v>154</v>
+      </c>
+      <c r="AG15">
+        <v>156</v>
+      </c>
+      <c r="AH15">
+        <v>165</v>
+      </c>
+      <c r="AI15">
+        <v>212</v>
+      </c>
+      <c r="AJ15">
+        <v>221</v>
+      </c>
+      <c r="AK15">
+        <v>239</v>
+      </c>
+      <c r="AL15">
+        <v>255</v>
+      </c>
+      <c r="AM15">
+        <v>273</v>
+      </c>
+      <c r="AN15">
+        <v>38</v>
+      </c>
+      <c r="AO15">
+        <v>57</v>
+      </c>
+      <c r="AP15">
+        <v>61</v>
+      </c>
+      <c r="AQ15">
+        <v>68</v>
+      </c>
+      <c r="AR15">
+        <v>82</v>
+      </c>
+      <c r="AS15">
+        <v>136</v>
+      </c>
+      <c r="AT15">
+        <v>158</v>
+      </c>
+      <c r="AU15">
+        <v>196</v>
+      </c>
+      <c r="AV15">
+        <v>229</v>
+      </c>
+      <c r="AW15">
+        <v>237</v>
+      </c>
+      <c r="AX15">
+        <v>241</v>
+      </c>
+      <c r="AY15">
+        <v>268</v>
+      </c>
+      <c r="AZ15">
+        <v>283</v>
+      </c>
+      <c r="BA15">
+        <v>45</v>
+      </c>
+      <c r="BB15">
+        <v>54</v>
+      </c>
+      <c r="BC15">
+        <v>55</v>
+      </c>
+      <c r="BD15">
+        <v>56</v>
+      </c>
+      <c r="BE15">
+        <v>60</v>
+      </c>
+      <c r="BF15">
+        <v>76</v>
+      </c>
+      <c r="BG15">
+        <v>134</v>
+      </c>
+      <c r="BH15">
+        <v>175</v>
+      </c>
+      <c r="BI15">
+        <v>188</v>
+      </c>
+      <c r="BJ15">
+        <v>208</v>
+      </c>
+      <c r="BK15">
+        <v>230</v>
+      </c>
+      <c r="BL15">
+        <v>246</v>
+      </c>
+      <c r="BM15">
+        <v>249</v>
+      </c>
+      <c r="BN15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>140</v>
+      </c>
+      <c r="G16">
+        <v>147</v>
+      </c>
+      <c r="H16">
+        <v>186</v>
+      </c>
+      <c r="I16">
+        <v>236</v>
+      </c>
+      <c r="J16">
+        <v>240</v>
+      </c>
+      <c r="K16">
+        <v>259</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>37</v>
+      </c>
+      <c r="O16">
+        <v>88</v>
+      </c>
+      <c r="P16">
+        <v>174</v>
+      </c>
+      <c r="Q16">
+        <v>183</v>
+      </c>
+      <c r="R16">
+        <v>247</v>
+      </c>
+      <c r="S16">
+        <v>248</v>
+      </c>
+      <c r="T16">
+        <v>252</v>
+      </c>
+      <c r="U16">
+        <v>254</v>
+      </c>
+      <c r="V16">
+        <v>258</v>
+      </c>
+      <c r="W16">
+        <v>261</v>
+      </c>
+      <c r="X16">
+        <v>282</v>
+      </c>
+      <c r="Y16">
+        <v>79</v>
+      </c>
+      <c r="Z16">
+        <v>92</v>
+      </c>
+      <c r="AA16">
+        <v>126</v>
+      </c>
+      <c r="AB16">
+        <v>128</v>
+      </c>
+      <c r="AC16">
+        <v>143</v>
+      </c>
+      <c r="AD16">
+        <v>146</v>
+      </c>
+      <c r="AE16">
+        <v>235</v>
+      </c>
+      <c r="AF16">
+        <v>250</v>
+      </c>
+      <c r="AG16">
+        <v>263</v>
+      </c>
+      <c r="AH16">
+        <v>265</v>
+      </c>
+      <c r="AI16">
+        <v>267</v>
+      </c>
+      <c r="AJ16">
+        <v>272</v>
+      </c>
+      <c r="AK16">
+        <v>94</v>
+      </c>
+      <c r="AL16">
+        <v>144</v>
+      </c>
+      <c r="AM16">
+        <v>262</v>
+      </c>
+      <c r="AN16">
+        <v>264</v>
+      </c>
+      <c r="AO16">
+        <v>266</v>
+      </c>
+      <c r="AP16">
+        <v>270</v>
+      </c>
+      <c r="AQ16">
+        <v>274</v>
+      </c>
+      <c r="AR16">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>222</v>
+      </c>
+      <c r="D17">
+        <v>223</v>
+      </c>
+      <c r="E17">
+        <v>280</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>251</v>
+      </c>
+      <c r="H17">
+        <v>281</v>
+      </c>
+      <c r="I17">
+        <v>242</v>
+      </c>
+      <c r="J17">
+        <v>243</v>
+      </c>
+      <c r="K17">
+        <v>260</v>
+      </c>
+      <c r="L17">
+        <v>285</v>
+      </c>
+      <c r="M17">
+        <v>286</v>
+      </c>
+      <c r="N17">
+        <v>287</v>
+      </c>
+      <c r="O17">
+        <v>288</v>
+      </c>
+      <c r="P17">
+        <v>289</v>
+      </c>
+      <c r="Q17">
+        <v>290</v>
+      </c>
+      <c r="R17">
+        <v>291</v>
+      </c>
+      <c r="S17">
+        <v>292</v>
+      </c>
+      <c r="T17">
+        <v>293</v>
+      </c>
+      <c r="U17">
+        <v>294</v>
+      </c>
+      <c r="V17">
+        <v>295</v>
+      </c>
+      <c r="W17">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
